--- a/ExcelMerger/EX2.xlsx
+++ b/ExcelMerger/EX2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="АПРЕЛЬ 2025" sheetId="1" state="visible" r:id="rId1"/>
@@ -46,9 +46,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -421,18 +422,18 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+      <selection activeCell="J13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.140625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="18.28515625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="11" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="11" bestFit="1" customWidth="1" style="4" min="5" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="3" t="n">
         <v>45772</v>
       </c>
     </row>
@@ -453,16 +454,16 @@
       <c r="D2" s="1" t="n">
         <v>38416</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>8824884521</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -482,16 +483,16 @@
       <c r="D3" s="1" t="n">
         <v>29677</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>8824884524</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -511,16 +512,16 @@
       <c r="D4" s="1" t="n">
         <v>32286</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>8824884520</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -540,16 +541,16 @@
       <c r="D5" s="1" t="n">
         <v>34895</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>8824884527</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -571,16 +572,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>AR1234567</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>6</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -600,20 +601,20 @@
       <c r="D7" s="1" t="n">
         <v>40113</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>8824884523</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45775</v>
       </c>
     </row>
@@ -634,16 +635,16 @@
       <c r="D9" s="1" t="n">
         <v>38416</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>56</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -663,16 +664,16 @@
       <c r="D10" s="1" t="n">
         <v>29677</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>42</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -692,16 +693,16 @@
       <c r="D11" s="1" t="n">
         <v>32286</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>43</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -721,16 +722,16 @@
       <c r="D12" s="1" t="n">
         <v>34895</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>23</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -750,16 +751,16 @@
       <c r="D13" s="1" t="n">
         <v>37504</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>6</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>12</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
     <row r="14">
@@ -779,16 +780,16 @@
       <c r="D14" s="1" t="n">
         <v>40113</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>08.06.</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>98</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>08.06.</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -814,12 +815,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.140625" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="11" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="10.140625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="11" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="3" t="n">
         <v>45783</v>
       </c>
     </row>
